--- a/Tecnologia da Informação/Product Backlog & Gráfico de Burndown - BeeTech.xlsx
+++ b/Tecnologia da Informação/Product Backlog & Gráfico de Burndown - BeeTech.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\OneDrive\Documentos\[2025] My Documents\SPTECH\04 - 1° SEMESTRE (MATÉRIAS)\PESQUISA E INOVAÇÃO\09 - BEETECH\BACKLOG + GRÁFICO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\beetech\Sprint_2\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC9D09-1704-4CDB-A863-469DA9B91AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9AC96-3D7C-439B-B77A-791433CBD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F13FE21-3909-4024-9E51-F6B5B91CD81C}"/>
   </bookViews>
@@ -27,9 +27,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -220,9 +221,6 @@
     <t>Pontos</t>
   </si>
   <si>
-    <t>Planejado</t>
-  </si>
-  <si>
     <t>Entregue</t>
   </si>
   <si>
@@ -431,13 +429,16 @@
   </si>
   <si>
     <t>Código do Node/API</t>
+  </si>
+  <si>
+    <t>planejado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -639,31 +640,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border>
@@ -840,6 +827,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -949,7 +956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planejado</c:v>
+                  <c:v>planejado</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -996,13 +1003,13 @@
                   <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173</c:v>
+                  <c:v>286.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176</c:v>
+                  <c:v>143.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,13 +1074,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>317</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1248,7 +1255,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1256,6 +1262,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1900,16 +1907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>160985</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>377778</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>344915</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>312088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>52552</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>105102</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>118240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1938,19 +1945,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BF696E1-E460-4395-A8F6-CAA0467D7A56}" name="Tabela1" displayName="Tabela1" ref="A2:H52" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BF696E1-E460-4395-A8F6-CAA0467D7A56}" name="Tabela1" displayName="Tabela1" ref="A2:H52" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A2:H52" xr:uid="{2BF696E1-E460-4395-A8F6-CAA0467D7A56}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{6ECC6F81-630B-49D3-805B-E9FE3D799D3D}" name="REQUISITO" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1D058733-D303-4135-A124-29464DC33A73}" name="DESCRIÇÃO" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4A9FBD53-C5AD-43F9-B80C-34C8759E680F}" name="CLASSIFICAÇÃO" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6928EAB6-577B-4082-AAC3-4ABABECCFE53}" name="TAMANHO" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{CB0AD832-680E-4373-B96F-AFCC00E72603}" name="TAM(#)" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{6ECC6F81-630B-49D3-805B-E9FE3D799D3D}" name="REQUISITO" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1D058733-D303-4135-A124-29464DC33A73}" name="DESCRIÇÃO" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4A9FBD53-C5AD-43F9-B80C-34C8759E680F}" name="CLASSIFICAÇÃO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6928EAB6-577B-4082-AAC3-4ABABECCFE53}" name="TAMANHO" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{CB0AD832-680E-4373-B96F-AFCC00E72603}" name="TAM(#)" dataDxfId="3">
       <calculatedColumnFormula>IF(D3="P",5,IF(D3="PP",3,IF(D3="M",8,IF(D3="G",13,IF(D3="GG",21,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D7323832-7608-48DF-A6CD-B1E879E62D55}" name="PRIORIDADE" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{52683356-C07B-41EC-A6CD-AA16D06032D0}" name="SPRINT" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{77F999EF-0A37-433E-9457-E5928B79426C}" name="ESTADO" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D7323832-7608-48DF-A6CD-B1E879E62D55}" name="PRIORIDADE" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{52683356-C07B-41EC-A6CD-AA16D06032D0}" name="SPRINT" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{77F999EF-0A37-433E-9457-E5928B79426C}" name="ESTADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2276,35 +2283,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="60.5546875" customWidth="1"/>
-    <col min="2" max="2" width="145.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.59765625" customWidth="1"/>
+    <col min="2" max="2" width="145.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" customWidth="1"/>
+    <col min="14" max="14" width="36.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.09765625" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="60" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +2323,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2531,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2558,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2666,7 +2673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -2693,7 +2700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2747,7 +2754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="30" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2774,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="30" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -2801,7 +2808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="30" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -2835,7 +2842,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2859,7 +2866,7 @@
         <v>56</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>58</v>
@@ -2868,21 +2875,22 @@
         <v>59</v>
       </c>
       <c r="M21" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="O21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
@@ -2904,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="11">
         <f>SUM(Tabela1[TAM('#)])</f>
@@ -2916,19 +2924,19 @@
       </c>
       <c r="N22" s="11">
         <f>SUMIF(Tabela1[ESTADO],"FINALIZADO",Tabela1[TAM('#)])</f>
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="O22" s="11">
         <f>SUM(L22-N22)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>17</v>
@@ -2950,15 +2958,15 @@
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L23" s="11">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT1",Tabela1[TAM('#)])</f>
         <v>173</v>
       </c>
       <c r="M23" s="11">
-        <f>SUMIF(Tabela1[SPRINT],"SPRINT1",Tabela1[TAM('#)])</f>
-        <v>173</v>
+        <f>M22-(M22/3)</f>
+        <v>286.66666666666663</v>
       </c>
       <c r="N23" s="12">
         <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT1")</f>
@@ -2969,12 +2977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="30" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>17</v>
@@ -2993,35 +3001,35 @@
         <v>56</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L24" s="11">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT2",Tabela1[TAM('#)])</f>
         <v>176</v>
       </c>
       <c r="M24" s="11">
-        <f>SUMIF(Tabela1[SPRINT],"SPRINT2",Tabela1[TAM('#)])</f>
-        <v>176</v>
+        <f>M22-M23</f>
+        <v>143.33333333333337</v>
       </c>
       <c r="N24" s="12">
         <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT2")</f>
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="O24" s="11">
         <f>SUM(L24-N24)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="30" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>17</v>
@@ -3043,15 +3051,14 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="11">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT3",Tabela1[TAM('#)])</f>
         <v>81</v>
       </c>
       <c r="M25" s="11">
-        <f>SUMIF(Tabela1[SPRINT],"SPRINT3",Tabela1[TAM('#)])</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N25" s="12">
         <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT3")</f>
@@ -3062,12 +3069,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="30" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>11</v>
@@ -3089,12 +3096,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
@@ -3113,15 +3120,15 @@
         <v>56</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
@@ -3140,15 +3147,15 @@
         <v>56</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="30" customHeight="1">
       <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>17</v>
@@ -3170,12 +3177,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="30" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -3197,12 +3204,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="30" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>17</v>
@@ -3224,12 +3231,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="30" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
@@ -3251,12 +3258,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
@@ -3278,12 +3285,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>17</v>
@@ -3305,12 +3312,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>17</v>
@@ -3332,12 +3339,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>17</v>
@@ -3359,12 +3366,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
@@ -3386,15 +3393,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" customHeight="1">
       <c r="A38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>26</v>
@@ -3413,12 +3420,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" customHeight="1">
       <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>17</v>
@@ -3440,15 +3447,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>26</v>
@@ -3464,18 +3471,18 @@
         <v>56</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>12</v>
@@ -3494,12 +3501,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
@@ -3521,12 +3528,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -3548,12 +3555,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
@@ -3569,18 +3576,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
@@ -3596,18 +3603,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -3623,18 +3630,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -3650,18 +3657,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -3677,18 +3684,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
@@ -3704,18 +3711,18 @@
         <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" customHeight="1">
       <c r="A50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
@@ -3731,18 +3738,18 @@
         <v>2</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" customHeight="1">
       <c r="A51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -3758,18 +3765,18 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -3785,90 +3792,90 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
@@ -3878,10 +3885,10 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"FINALIZADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"PENDENTE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3895,6 +3902,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A729CFA7192B0F4AA60BE2DF65F4BC74" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="571acb434632999db5ee38a13a8eaef4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="517f1c296c3d1a438ed59838590dd0f3" ns3:_="">
     <xsd:import namespace="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
@@ -4044,37 +4068,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBF2F96-8E40-4E5F-94E3-F7E55AE7689F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E306DC-4D82-4FE5-B96D-A09D99E18E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4096,9 +4093,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E306DC-4D82-4FE5-B96D-A09D99E18E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBF2F96-8E40-4E5F-94E3-F7E55AE7689F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tecnologia da Informação/Product Backlog & Gráfico de Burndown - BeeTech.xlsx
+++ b/Tecnologia da Informação/Product Backlog & Gráfico de Burndown - BeeTech.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\beetech\Sprint_2\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E9AC96-3D7C-439B-B77A-791433CBD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB588CCD-5F0B-4B9D-9529-2FDE958E84DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F13FE21-3909-4024-9E51-F6B5B91CD81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="132">
   <si>
     <t>PRODUCT BACKLOG - BEETECH</t>
   </si>
@@ -432,13 +433,16 @@
   </si>
   <si>
     <t>planejado</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +480,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -491,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -588,11 +599,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,13 +643,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,11 +663,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,9 +1004,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$K$22:$K$25</c:f>
+              <c:f>Planilha1!$K$22:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>total</c:v>
                 </c:pt>
@@ -990,25 +1019,31 @@
                 <c:pt idx="3">
                   <c:v>Sprint3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$M$22:$M$25</c:f>
+              <c:f>Planilha1!$M$22:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>286.66666666666663</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.33333333333337</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1049,9 +1084,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$K$22:$K$25</c:f>
+              <c:f>Planilha1!$K$22:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>total</c:v>
                 </c:pt>
@@ -1064,17 +1099,20 @@
                 <c:pt idx="3">
                   <c:v>Sprint3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$N$22:$N$25</c:f>
+              <c:f>Planilha1!$N$22:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>349</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>173</c:v>
@@ -1083,7 +1121,7 @@
                   <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,15 +1946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>344915</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>312088</xdr:rowOff>
+      <xdr:colOff>141715</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>236482</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>118240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2285,8 +2323,8 @@
   </sheetPr>
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="40" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="65" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2312,16 +2350,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2834,13 +2872,13 @@
       <c r="H20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -2855,7 +2893,7 @@
       <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2868,22 +2906,22 @@
       <c r="H21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="17"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -2898,7 +2936,7 @@
       <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2911,24 +2949,24 @@
       <c r="H22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="11">
-        <f>SUM(Tabela1[TAM('#)])</f>
+      <c r="L22" s="18">
+        <f>SUM(L23:L26)</f>
         <v>430</v>
       </c>
-      <c r="M22" s="11">
-        <f>SUM(Tabela1[TAM('#)])</f>
+      <c r="M22" s="18">
+        <f>SUM(M23:M26)</f>
         <v>430</v>
       </c>
-      <c r="N22" s="11">
-        <f>SUMIF(Tabela1[ESTADO],"FINALIZADO",Tabela1[TAM('#)])</f>
-        <v>349</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="N22" s="18">
+        <f>SUM(N23:N26)</f>
+        <v>430</v>
+      </c>
+      <c r="O22" s="13">
         <f>SUM(L22-N22)</f>
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
@@ -2944,7 +2982,7 @@
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -2957,22 +2995,21 @@
       <c r="H23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="13">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT1",Tabela1[TAM('#)])</f>
         <v>173</v>
       </c>
-      <c r="M23" s="11">
-        <f>M22-(M22/3)</f>
-        <v>286.66666666666663</v>
-      </c>
-      <c r="N23" s="12">
+      <c r="M23" s="13">
+        <v>165</v>
+      </c>
+      <c r="N23" s="11">
         <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT1")</f>
         <v>173</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="13">
         <f>SUM(L23-N23)</f>
         <v>0</v>
       </c>
@@ -2990,7 +3027,7 @@
       <c r="D24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3004,22 +3041,21 @@
         <v>14</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="13">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT2",Tabela1[TAM('#)])</f>
         <v>176</v>
       </c>
-      <c r="M24" s="11">
-        <f>M22-M23</f>
-        <v>143.33333333333337</v>
-      </c>
-      <c r="N24" s="12">
+      <c r="M24" s="13">
+        <v>148</v>
+      </c>
+      <c r="N24" s="11">
         <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT2")</f>
         <v>176</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="13">
         <f>SUM(L24-N24)</f>
         <v>0</v>
       </c>
@@ -3037,7 +3073,7 @@
       <c r="D25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3050,23 +3086,22 @@
       <c r="H25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="13">
         <f>SUMIF(Tabela1[SPRINT],"SPRINT3",Tabela1[TAM('#)])</f>
         <v>81</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="13">
+        <v>117</v>
+      </c>
+      <c r="N25" s="11">
+        <v>81</v>
+      </c>
+      <c r="O25" s="13">
+        <f>SUM(L25-N25)</f>
         <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <f>SUMIFS(Tabela1[TAM('#)],Tabela1[ESTADO],"FINALIZADO",Tabela1[SPRINT],"SPRINT3")</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <f>SUM(L25-N25)</f>
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
@@ -3082,7 +3117,7 @@
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3094,6 +3129,19 @@
       </c>
       <c r="H26" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
@@ -3109,7 +3157,7 @@
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -3136,7 +3184,7 @@
       <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3163,7 +3211,7 @@
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3190,7 +3238,7 @@
       <c r="D30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3217,7 +3265,7 @@
       <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3244,7 +3292,7 @@
       <c r="D32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3271,7 +3319,7 @@
       <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3298,7 +3346,7 @@
       <c r="D34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -3325,7 +3373,7 @@
       <c r="D35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <f t="shared" ref="E35:E52" si="1">IF(D35="P",5,IF(D35="PP",3,IF(D35="M",8,IF(D35="G",13,IF(D35="GG",21,"")))))</f>
         <v>8</v>
       </c>
@@ -3352,7 +3400,7 @@
       <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3379,7 +3427,7 @@
       <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3406,7 +3454,7 @@
       <c r="D38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3433,7 +3481,7 @@
       <c r="D39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -3460,7 +3508,7 @@
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3487,7 +3535,7 @@
       <c r="D41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3514,7 +3562,7 @@
       <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3541,7 +3589,7 @@
       <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -3578,7 +3626,7 @@
       <c r="G44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3901,24 +3949,19 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEC3BB-633E-407C-BF76-ED19E102FC3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A729CFA7192B0F4AA60BE2DF65F4BC74" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="571acb434632999db5ee38a13a8eaef4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="517f1c296c3d1a438ed59838590dd0f3" ns3:_="">
     <xsd:import namespace="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
@@ -4068,10 +4111,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8497f9ae-9c71-438c-b553-1e6fe8b1acb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E306DC-4D82-4FE5-B96D-A09D99E18E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBF2F96-8E40-4E5F-94E3-F7E55AE7689F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4093,19 +4163,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FBF2F96-8E40-4E5F-94E3-F7E55AE7689F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33E306DC-4D82-4FE5-B96D-A09D99E18E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8497f9ae-9c71-438c-b553-1e6fe8b1acb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>